--- a/format/SEND_IMAGE.xlsx
+++ b/format/SEND_IMAGE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,45 @@
   </si>
   <si>
     <t>callback</t>
+  </si>
+  <si>
+    <t>085860565852</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY5FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World A</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY6FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World B</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY7FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World C</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY8FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World D</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY9FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World E</t>
+  </si>
+  <si>
+    <t>https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY10FXzA.png</t>
+  </si>
+  <si>
+    <t>Hello World F</t>
   </si>
 </sst>
 </file>
@@ -47,14 +86,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,154 +542,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,15 +1010,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1011,7 +1048,81 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY5FXzA.png"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY6FXzA.png"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY7FXzA.png"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY8FXzA.png"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY9FXzA.png"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://miro.medium.com/v2/resize:fit:1024/1*OohqW5DGh9CQS4hLY10FXzA.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/format/SEND_IMAGE.xlsx
+++ b/format/SEND_IMAGE.xlsx
@@ -28,10 +28,10 @@
     <t>caption</t>
   </si>
   <si>
+    <t>waktu</t>
+  </si>
+  <si>
     <t>terkirim</t>
-  </si>
-  <si>
-    <t>waktu</t>
   </si>
   <si>
     <t>callback</t>
@@ -690,7 +690,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
